--- a/data/output/Scraped-Website-PDFs.xlsx
+++ b/data/output/Scraped-Website-PDFs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,1179 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/tnijniho/segro_ar2022_lowres.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/5epbh0ns/segro_ar-2021_web.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/lgxg3xhc/segro-green-finance-framework.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/ncudee2q/responsible_segro_2023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/biqdjqp2/responsible-segro-framework.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/fbrgaded/responsible_segro_2023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/ojkel3gg/responsible-segro-framework.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/md4do5zs/responsible-segro-data-pack-2020.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/eh2nbru2/responsible-segro-2021-data-pack-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/kvhlzwzb/segro-in-france.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/h2hnjqqz/segro_strategyvision.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/ybtkebtj/segro-aquisition.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/0fphhdvs/segro-nom.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/4o5adp2h/segro_csr16.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/0r4biubx/segro_ar2023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/tnijniho/segro_ar2022_lowres.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/5epbh0ns/segro_ar-2021_web.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/lgxg3xhc/segro-green-finance-framework.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/ncudee2q/responsible_segro_2023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/biqdjqp2/responsible-segro-framework.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/fbrgaded/responsible_segro_2023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/ojkel3gg/responsible-segro-framework.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/md4do5zs/responsible-segro-data-pack-2020.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/eh2nbru2/responsible-segro-2021-data-pack-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/kvhlzwzb/segro-in-france.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/h2hnjqqz/segro_strategyvision.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/ybtkebtj/segro-aquisition.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/0fphhdvs/segro-nom.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/rndnqbmr/press-release-selp-publishes-financial-results-for-year-ended-31-december-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/hken2uzm/financial-review.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/ho1l2huv/results-of-placing.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/s4qhqlc3/results-of-placing.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/a0qn2jsq/financial-controller-selp-luxembourg-10-month-ftc.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/vrxlljwx/fy22-results-presentation_final1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/34ynzrdc/hy23-results-presentation-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/bhgb0csu/fy23-results-presentation-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/g3yaequx/hy21-results-presentation-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/suqjgrwf/fy20_results_presentation.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/k5lglqin/full-year-results-2019.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/k4cfquzw/segro_data_pack_310723.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/aw1abdwu/2021_climate_change_segro.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/b1zdsdbo/segro-isae-3000-statement-final-v2-30012023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/elypzz4j/segro-gri_230308_final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/zmfhixrj/segro-ghg-reporting-methodology-2022-v10.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/c3dc0aq1/segro-plc-climate-change-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/vzvp0blm/segro-cdp-supplier-engagment-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/ixvnhch5/segro-2021-green-bond-impact-report-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/hvdgnuof/segro-climate-physical-risk-report-updated-final-jun-2023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/whmbrzjb/tor-audit-co-approved-june-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/d1cgo3g3/nomination-committee-terms-of-reference-february-2024.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/2phjrc1q/remuneration-committee-terms-of-reference-february-2024.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/n24pbhnu/remuneration-policy-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/jm4pjwr5/fy23-tax-strategy-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/qxkdf5z1/policy-for-the-approval-of-non-audit-services-feb-2024-final-for-website.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/hhsbpg1p/risk-management-fy-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/cwuebfsx/section-430-2b-ag-3723.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/5hlfvp0t/segro-data-pack_230309_final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/qfmdnpbz/fy-2023-press-release-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/fotprvip/hy23_press_release_final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/s3agq1qx/property-analysis-report-2023-hy-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/4yojwp54/fy-2022-press-release-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/52zaj3bq/property-analysis-report-2022-fy.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/sy2alaoh/hy22-press-release-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/okulwjod/property-analysis-report-2022-hy-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/wrajeus4/hy22-results-presentation-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/hkmbguh5/segro-fy-2021-press-release-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/a1aldwcl/fy21-results-presentation-final-version.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/xmjlkp4c/hy21-press-release-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Segro</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.segro.com/media/nbhhfkis/half-year-2021-property-analysis-report-final.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
